--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt9a-Fzd10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt9a-Fzd10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Wnt9a</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -537,16 +534,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.3658375</v>
+        <v>0.5939095</v>
       </c>
       <c r="H2">
-        <v>0.731675</v>
+        <v>1.187819</v>
       </c>
       <c r="I2">
-        <v>0.1005676763042391</v>
+        <v>0.4800062555800474</v>
       </c>
       <c r="J2">
-        <v>0.08632853560586781</v>
+        <v>0.4083203479364477</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,22 +558,22 @@
         <v>0.119697</v>
       </c>
       <c r="O2">
-        <v>0.4436993666839036</v>
+        <v>0.4086672402490986</v>
       </c>
       <c r="P2">
-        <v>0.5447061607492286</v>
+        <v>0.5089958879585649</v>
       </c>
       <c r="Q2">
-        <v>0.0145965504125</v>
+        <v>0.0236963951405</v>
       </c>
       <c r="R2">
-        <v>0.087579302475</v>
+        <v>0.142178370843</v>
       </c>
       <c r="S2">
-        <v>0.04462181428506271</v>
+        <v>0.1961628317702015</v>
       </c>
       <c r="T2">
-        <v>0.04702368519297534</v>
+        <v>0.2078333780694623</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -599,16 +596,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.3658375</v>
+        <v>0.5939095</v>
       </c>
       <c r="H3">
-        <v>0.731675</v>
+        <v>1.187819</v>
       </c>
       <c r="I3">
-        <v>0.1005676763042391</v>
+        <v>0.4800062555800474</v>
       </c>
       <c r="J3">
-        <v>0.08632853560586781</v>
+        <v>0.4083203479364477</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +614,28 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.0500245</v>
+        <v>0.057733</v>
       </c>
       <c r="N3">
-        <v>0.100049</v>
+        <v>0.115466</v>
       </c>
       <c r="O3">
-        <v>0.5563006333160965</v>
+        <v>0.5913327597509014</v>
       </c>
       <c r="P3">
-        <v>0.4552938392507713</v>
+        <v>0.4910041120414351</v>
       </c>
       <c r="Q3">
-        <v>0.01830083801875</v>
+        <v>0.0342881771635</v>
       </c>
       <c r="R3">
-        <v>0.07320335207499999</v>
+        <v>0.137152708654</v>
       </c>
       <c r="S3">
-        <v>0.0559458620191764</v>
+        <v>0.283843423809846</v>
       </c>
       <c r="T3">
-        <v>0.03930485041289247</v>
+        <v>0.2004869698669853</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +643,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -667,10 +664,10 @@
         <v>1.303339</v>
       </c>
       <c r="I4">
-        <v>0.1194280472128479</v>
+        <v>0.3511258158251627</v>
       </c>
       <c r="J4">
-        <v>0.1537777664509737</v>
+        <v>0.4480310838260221</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,10 +682,10 @@
         <v>0.119697</v>
       </c>
       <c r="O4">
-        <v>0.4436993666839036</v>
+        <v>0.4086672402490986</v>
       </c>
       <c r="P4">
-        <v>0.5447061607492286</v>
+        <v>0.5089958879585649</v>
       </c>
       <c r="Q4">
         <v>0.01733397425366667</v>
@@ -697,10 +694,10 @@
         <v>0.156005768283</v>
       </c>
       <c r="S4">
-        <v>0.05299014891263593</v>
+        <v>0.1434936181334825</v>
       </c>
       <c r="T4">
-        <v>0.0837636967721014</v>
+        <v>0.2280459793450643</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +705,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,10 +726,10 @@
         <v>1.303339</v>
       </c>
       <c r="I5">
-        <v>0.1194280472128479</v>
+        <v>0.3511258158251627</v>
       </c>
       <c r="J5">
-        <v>0.1537777664509737</v>
+        <v>0.4480310838260221</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +738,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.0500245</v>
+        <v>0.057733</v>
       </c>
       <c r="N5">
-        <v>0.100049</v>
+        <v>0.115466</v>
       </c>
       <c r="O5">
-        <v>0.5563006333160965</v>
+        <v>0.5913327597509014</v>
       </c>
       <c r="P5">
-        <v>0.4552938392507713</v>
+        <v>0.4910041120414351</v>
       </c>
       <c r="Q5">
-        <v>0.02173296060183333</v>
+        <v>0.02508189016233333</v>
       </c>
       <c r="R5">
-        <v>0.130397763611</v>
+        <v>0.150491340974</v>
       </c>
       <c r="S5">
-        <v>0.06643789830021193</v>
+        <v>0.2076321976916802</v>
       </c>
       <c r="T5">
-        <v>0.07001406967887226</v>
+        <v>0.2199851044809578</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +767,31 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>2.071865</v>
+        <v>0.2089395</v>
       </c>
       <c r="H6">
-        <v>4.14373</v>
+        <v>0.417879</v>
       </c>
       <c r="I6">
-        <v>0.5695497281336176</v>
+        <v>0.1688679285947898</v>
       </c>
       <c r="J6">
-        <v>0.4889085220160626</v>
+        <v>0.1436485682375301</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,22 +806,22 @@
         <v>0.119697</v>
       </c>
       <c r="O6">
-        <v>0.4436993666839036</v>
+        <v>0.4086672402490986</v>
       </c>
       <c r="P6">
-        <v>0.5447061607492286</v>
+        <v>0.5089958879585649</v>
       </c>
       <c r="Q6">
-        <v>0.08266534163499999</v>
+        <v>0.0083364771105</v>
       </c>
       <c r="R6">
-        <v>0.4959920498099999</v>
+        <v>0.050018862663</v>
       </c>
       <c r="S6">
-        <v>0.2527088536678756</v>
+        <v>0.06901079034541459</v>
       </c>
       <c r="T6">
-        <v>0.2663114839849492</v>
+        <v>0.07311653054403815</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +829,31 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>2.071865</v>
+        <v>0.2089395</v>
       </c>
       <c r="H7">
-        <v>4.14373</v>
+        <v>0.417879</v>
       </c>
       <c r="I7">
-        <v>0.5695497281336176</v>
+        <v>0.1688679285947898</v>
       </c>
       <c r="J7">
-        <v>0.4889085220160626</v>
+        <v>0.1436485682375301</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,152 +862,28 @@
         <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.0500245</v>
+        <v>0.057733</v>
       </c>
       <c r="N7">
-        <v>0.100049</v>
+        <v>0.115466</v>
       </c>
       <c r="O7">
-        <v>0.5563006333160965</v>
+        <v>0.5913327597509014</v>
       </c>
       <c r="P7">
-        <v>0.4552938392507713</v>
+        <v>0.4910041120414351</v>
       </c>
       <c r="Q7">
-        <v>0.1036440106925</v>
+        <v>0.0120627041535</v>
       </c>
       <c r="R7">
-        <v>0.41457604277</v>
+        <v>0.048250816614</v>
       </c>
       <c r="S7">
-        <v>0.3168408744657421</v>
+        <v>0.09985713824937521</v>
       </c>
       <c r="T7">
-        <v>0.2225970380311134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.7655756666666665</v>
-      </c>
-      <c r="H8">
-        <v>2.296727</v>
-      </c>
-      <c r="I8">
-        <v>0.2104545483492954</v>
-      </c>
-      <c r="J8">
-        <v>0.270985175927096</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.039899</v>
-      </c>
-      <c r="N8">
-        <v>0.119697</v>
-      </c>
-      <c r="O8">
-        <v>0.4436993666839036</v>
-      </c>
-      <c r="P8">
-        <v>0.5447061607492286</v>
-      </c>
-      <c r="Q8">
-        <v>0.03054570352433333</v>
-      </c>
-      <c r="R8">
-        <v>0.274911331719</v>
-      </c>
-      <c r="S8">
-        <v>0.09337854981832935</v>
-      </c>
-      <c r="T8">
-        <v>0.1476072947992027</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.7655756666666665</v>
-      </c>
-      <c r="H9">
-        <v>2.296727</v>
-      </c>
-      <c r="I9">
-        <v>0.2104545483492954</v>
-      </c>
-      <c r="J9">
-        <v>0.270985175927096</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.5</v>
-      </c>
-      <c r="M9">
-        <v>0.0500245</v>
-      </c>
-      <c r="N9">
-        <v>0.100049</v>
-      </c>
-      <c r="O9">
-        <v>0.5563006333160965</v>
-      </c>
-      <c r="P9">
-        <v>0.4552938392507713</v>
-      </c>
-      <c r="Q9">
-        <v>0.03829753993716666</v>
-      </c>
-      <c r="R9">
-        <v>0.229785239623</v>
-      </c>
-      <c r="S9">
-        <v>0.1170759985309661</v>
-      </c>
-      <c r="T9">
-        <v>0.1233778811278932</v>
+        <v>0.07053203769349198</v>
       </c>
     </row>
   </sheetData>
